--- a/FALL 19/CSE 208/sec1_results.xlsx
+++ b/FALL 19/CSE 208/sec1_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="quiz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -79,13 +79,19 @@
   </si>
   <si>
     <t>Problem 4</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +119,12 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,6 +162,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,21 +472,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="3" customWidth="1"/>
-    <col min="3" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="8" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,8 +505,14 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>141014039</v>
       </c>
@@ -508,8 +532,16 @@
         <f>C2+D2+E2</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="8">
+        <f>(F2/20)*100</f>
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="str">
+        <f>IF(G2&gt;94,"A+",IF(G2&gt;84,"A",IF(G2&gt;79,"A-",IF(G2&gt;74,"B+",IF(G2&gt;69,"B",IF(G2&gt;64,"B-",IF(G2&gt;59,"C+",IF(G2&gt;54,"C",IF(G2&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>151014050</v>
       </c>
@@ -523,8 +555,16 @@
         <f t="shared" ref="F3:F15" si="0">C3+D3+E3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G15" si="1">(F3/20)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f t="shared" ref="H3:H15" si="2">IF(G3&gt;94,"A+",IF(G3&gt;84,"A",IF(G3&gt;79,"A-",IF(G3&gt;74,"B+",IF(G3&gt;69,"B",IF(G3&gt;64,"B-",IF(G3&gt;59,"C+",IF(G3&gt;54,"C",IF(G3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>161014055</v>
       </c>
@@ -544,8 +584,16 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="8">
+        <f t="shared" si="1"/>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>173014003</v>
       </c>
@@ -565,8 +613,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>173014050</v>
       </c>
@@ -586,8 +642,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>181014069</v>
       </c>
@@ -607,8 +671,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>181014073</v>
       </c>
@@ -628,8 +700,16 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="8">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>181014124</v>
       </c>
@@ -649,8 +729,16 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>182014003</v>
       </c>
@@ -670,8 +758,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>182014006</v>
       </c>
@@ -691,8 +787,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>182014035</v>
       </c>
@@ -706,8 +810,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>182014036</v>
       </c>
@@ -721,8 +833,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>183014021</v>
       </c>
@@ -742,8 +862,16 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="8">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>183014079</v>
       </c>
@@ -762,6 +890,14 @@
       <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
       </c>
     </row>
   </sheetData>
@@ -772,10 +908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,9 +919,10 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,8 +944,14 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>141014039</v>
       </c>
@@ -825,8 +968,16 @@
         <f>C2+D2+E2+F2</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="8">
+        <f>(G2/20)*100</f>
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="str">
+        <f>IF(H2&gt;94,"A+",IF(H2&gt;84,"A",IF(H2&gt;79,"A-",IF(H2&gt;74,"B+",IF(H2&gt;69,"B",IF(H2&gt;64,"B-",IF(H2&gt;59,"C+",IF(H2&gt;54,"C",IF(H2&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>151014050</v>
       </c>
@@ -837,8 +988,16 @@
         <f t="shared" ref="G3:G15" si="0">C3+D3+E3+F3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H15" si="1">(G3/20)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f t="shared" ref="I3:I15" si="2">IF(H3&gt;94,"A+",IF(H3&gt;84,"A",IF(H3&gt;79,"A-",IF(H3&gt;74,"B+",IF(H3&gt;69,"B",IF(H3&gt;64,"B-",IF(H3&gt;59,"C+",IF(H3&gt;54,"C",IF(H3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>161014055</v>
       </c>
@@ -861,8 +1020,16 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="8">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>173014003</v>
       </c>
@@ -881,8 +1048,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>173014050</v>
       </c>
@@ -903,8 +1078,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>181014069</v>
       </c>
@@ -925,8 +1108,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>181014073</v>
       </c>
@@ -941,8 +1132,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>181014124</v>
       </c>
@@ -961,8 +1160,16 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>182014003</v>
       </c>
@@ -983,8 +1190,16 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>182014006</v>
       </c>
@@ -1007,8 +1222,16 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>182014035</v>
       </c>
@@ -1029,8 +1252,16 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="8">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>182014036</v>
       </c>
@@ -1049,8 +1280,16 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>183014021</v>
       </c>
@@ -1067,8 +1306,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>183014079</v>
       </c>
@@ -1087,9 +1334,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
